--- a/Timecard_example.xlsx
+++ b/Timecard_example.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Desktop\Python Projects\Timecard\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4571EC22-DE42-4BEB-A5A3-C8B0B5CD5616}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,14 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -185,9 +183,6 @@
     <t>He</t>
   </si>
   <si>
-    <t>Yau</t>
-  </si>
-  <si>
     <t>Ma</t>
   </si>
   <si>
@@ -207,9 +202,6 @@
   </si>
   <si>
     <t>Tsang</t>
-  </si>
-  <si>
-    <t>Poon</t>
   </si>
   <si>
     <t>Ip</t>
@@ -247,20 +239,26 @@
   <si>
     <t>Law</t>
   </si>
+  <si>
+    <t>Chow</t>
+  </si>
+  <si>
+    <t>Li</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yy;@"/>
-    <numFmt numFmtId="177" formatCode="#,##0.00;[Red]\(#,##0.00\);&quot;-&quot;"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00;[Red]\(#,##0.00\);&quot;-&quot;"/>
   </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -278,7 +276,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -368,11 +366,11 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -388,11 +386,11 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
@@ -400,24 +398,24 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="15">
     <dxf>
@@ -474,7 +472,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00;[Red]\(#,##0.00\);&quot;-&quot;"/>
+      <numFmt numFmtId="165" formatCode="#,##0.00;[Red]\(#,##0.00\);&quot;-&quot;"/>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -586,7 +584,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="177" formatCode="#,##0.00;[Red]\(#,##0.00\);&quot;-&quot;"/>
+      <numFmt numFmtId="165" formatCode="#,##0.00;[Red]\(#,##0.00\);&quot;-&quot;"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -736,7 +734,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -774,7 +772,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="176" formatCode="[$-409]d\-mmm\-yy;@"/>
+      <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -877,20 +875,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="PACTXN__TxnDetail_Tbl" displayName="PACTXN__TxnDetail_Tbl" ref="A1:K508" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A1:K508"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="PACTXN__TxnDetail_Tbl" displayName="PACTXN__TxnDetail_Tbl" ref="A1:K508" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A1:K508" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="ID" dataDxfId="10"/>
-    <tableColumn id="20" name="Item_date" dataDxfId="9"/>
-    <tableColumn id="19" name="Week_Ending" dataDxfId="8"/>
-    <tableColumn id="3" name="ResCat" dataDxfId="7"/>
-    <tableColumn id="21" name="Emp_Sup" dataDxfId="6"/>
-    <tableColumn id="6" name="Exp_Org" dataDxfId="5"/>
-    <tableColumn id="7" name="Qty" dataDxfId="4"/>
-    <tableColumn id="8" name="Unit" dataDxfId="3"/>
-    <tableColumn id="9" name="Exp_Cat" dataDxfId="2"/>
-    <tableColumn id="23" name="Burdened_Cost" dataDxfId="1"/>
-    <tableColumn id="16" name="Period" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="10"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="Item_date" dataDxfId="9"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Week_Ending" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ResCat" dataDxfId="7"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="Emp_Sup" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Exp_Org" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Qty" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Unit" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Exp_Cat" dataDxfId="2"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Burdened_Cost" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="Period" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1185,33 +1183,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A508"/>
+    <sheetView tabSelected="1" topLeftCell="A404" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J308" sqref="J308"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.625" customWidth="1"/>
-    <col min="6" max="6" width="36.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.625" customWidth="1"/>
-    <col min="10" max="10" width="19.625" customWidth="1"/>
-    <col min="11" max="11" width="19.75" customWidth="1"/>
+    <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+    <col min="6" max="6" width="36.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="19.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1893,7 +1891,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>30</v>
@@ -2278,7 +2276,7 @@
         <v>12</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>24</v>
@@ -2768,7 +2766,7 @@
         <v>12</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>30</v>
@@ -2803,7 +2801,7 @@
         <v>12</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>30</v>
@@ -2873,7 +2871,7 @@
         <v>12</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>24</v>
@@ -3748,7 +3746,7 @@
         <v>12</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>23</v>
@@ -3818,7 +3816,7 @@
         <v>12</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>24</v>
@@ -4028,7 +4026,7 @@
         <v>12</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>23</v>
@@ -4133,7 +4131,7 @@
         <v>12</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>23</v>
@@ -4203,7 +4201,7 @@
         <v>12</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F86" s="7" t="s">
         <v>22</v>
@@ -4273,7 +4271,7 @@
         <v>12</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>22</v>
@@ -4308,7 +4306,7 @@
         <v>12</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>23</v>
@@ -4483,7 +4481,7 @@
         <v>12</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F94" s="7" t="s">
         <v>23</v>
@@ -4518,7 +4516,7 @@
         <v>12</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="F95" s="7" t="s">
         <v>24</v>
@@ -4693,7 +4691,7 @@
         <v>10</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F100" s="7" t="s">
         <v>23</v>
@@ -4728,7 +4726,7 @@
         <v>10</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F101" s="7" t="s">
         <v>23</v>
@@ -4763,7 +4761,7 @@
         <v>10</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F102" s="7" t="s">
         <v>23</v>
@@ -4798,7 +4796,7 @@
         <v>10</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F103" s="7" t="s">
         <v>23</v>
@@ -4833,7 +4831,7 @@
         <v>10</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F104" s="7" t="s">
         <v>23</v>
@@ -4868,7 +4866,7 @@
         <v>10</v>
       </c>
       <c r="E105" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F105" s="7" t="s">
         <v>23</v>
@@ -4903,7 +4901,7 @@
         <v>10</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F106" s="7" t="s">
         <v>23</v>
@@ -4938,7 +4936,7 @@
         <v>10</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F107" s="7" t="s">
         <v>23</v>
@@ -5918,7 +5916,7 @@
         <v>12</v>
       </c>
       <c r="E135" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F135" s="7" t="s">
         <v>23</v>
@@ -5953,7 +5951,7 @@
         <v>12</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F136" s="7" t="s">
         <v>23</v>
@@ -6093,7 +6091,7 @@
         <v>12</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F140" s="7" t="s">
         <v>24</v>
@@ -6233,7 +6231,7 @@
         <v>12</v>
       </c>
       <c r="E144" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F144" s="7" t="s">
         <v>23</v>
@@ -6303,7 +6301,7 @@
         <v>12</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F146" s="7" t="s">
         <v>23</v>
@@ -6373,7 +6371,7 @@
         <v>12</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F148" s="7" t="s">
         <v>23</v>
@@ -6548,7 +6546,7 @@
         <v>12</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F153" s="7" t="s">
         <v>24</v>
@@ -6583,7 +6581,7 @@
         <v>12</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="F154" s="7" t="s">
         <v>24</v>
@@ -7248,7 +7246,7 @@
         <v>12</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F173" s="7" t="s">
         <v>23</v>
@@ -7318,7 +7316,7 @@
         <v>12</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F175" s="7" t="s">
         <v>23</v>
@@ -7388,7 +7386,7 @@
         <v>12</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F177" s="7" t="s">
         <v>23</v>
@@ -7528,7 +7526,7 @@
         <v>12</v>
       </c>
       <c r="E181" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F181" s="7" t="s">
         <v>24</v>
@@ -7668,7 +7666,7 @@
         <v>12</v>
       </c>
       <c r="E185" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F185" s="7" t="s">
         <v>23</v>
@@ -7773,7 +7771,7 @@
         <v>12</v>
       </c>
       <c r="E188" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F188" s="7" t="s">
         <v>22</v>
@@ -8088,7 +8086,7 @@
         <v>12</v>
       </c>
       <c r="E197" s="7" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="F197" s="7" t="s">
         <v>24</v>
@@ -8858,7 +8856,7 @@
         <v>12</v>
       </c>
       <c r="E219" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F219" s="7" t="s">
         <v>23</v>
@@ -8998,7 +8996,7 @@
         <v>12</v>
       </c>
       <c r="E223" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F223" s="7" t="s">
         <v>24</v>
@@ -9138,7 +9136,7 @@
         <v>12</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F227" s="7" t="s">
         <v>23</v>
@@ -9208,7 +9206,7 @@
         <v>12</v>
       </c>
       <c r="E229" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F229" s="7" t="s">
         <v>23</v>
@@ -9243,7 +9241,7 @@
         <v>12</v>
       </c>
       <c r="E230" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F230" s="7" t="s">
         <v>23</v>
@@ -9278,7 +9276,7 @@
         <v>12</v>
       </c>
       <c r="E231" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F231" s="7" t="s">
         <v>23</v>
@@ -9418,7 +9416,7 @@
         <v>12</v>
       </c>
       <c r="E235" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F235" s="7" t="s">
         <v>23</v>
@@ -9488,7 +9486,7 @@
         <v>12</v>
       </c>
       <c r="E237" s="7" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F237" s="7" t="s">
         <v>24</v>
@@ -9523,7 +9521,7 @@
         <v>12</v>
       </c>
       <c r="E238" s="7" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="F238" s="7" t="s">
         <v>24</v>
@@ -9593,7 +9591,7 @@
         <v>12</v>
       </c>
       <c r="E240" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F240" s="7" t="s">
         <v>32</v>
@@ -10573,7 +10571,7 @@
         <v>12</v>
       </c>
       <c r="E268" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F268" s="7" t="s">
         <v>23</v>
@@ -10643,7 +10641,7 @@
         <v>12</v>
       </c>
       <c r="E270" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F270" s="7" t="s">
         <v>23</v>
@@ -10818,7 +10816,7 @@
         <v>12</v>
       </c>
       <c r="E275" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F275" s="7" t="s">
         <v>23</v>
@@ -10923,7 +10921,7 @@
         <v>12</v>
       </c>
       <c r="E278" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F278" s="7" t="s">
         <v>23</v>
@@ -10993,7 +10991,7 @@
         <v>12</v>
       </c>
       <c r="E280" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F280" s="7" t="s">
         <v>24</v>
@@ -11168,7 +11166,7 @@
         <v>12</v>
       </c>
       <c r="E285" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F285" s="7" t="s">
         <v>23</v>
@@ -11203,7 +11201,7 @@
         <v>12</v>
       </c>
       <c r="E286" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F286" s="7" t="s">
         <v>23</v>
@@ -11343,7 +11341,7 @@
         <v>12</v>
       </c>
       <c r="E290" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F290" s="7" t="s">
         <v>23</v>
@@ -11413,7 +11411,7 @@
         <v>12</v>
       </c>
       <c r="E292" s="7" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F292" s="7" t="s">
         <v>24</v>
@@ -11483,7 +11481,7 @@
         <v>12</v>
       </c>
       <c r="E294" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F294" s="7" t="s">
         <v>30</v>
@@ -11518,7 +11516,7 @@
         <v>12</v>
       </c>
       <c r="E295" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F295" s="7" t="s">
         <v>30</v>
@@ -11553,7 +11551,7 @@
         <v>12</v>
       </c>
       <c r="E296" s="7" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="F296" s="7" t="s">
         <v>24</v>
@@ -12218,7 +12216,7 @@
         <v>12</v>
       </c>
       <c r="E315" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F315" s="7" t="s">
         <v>23</v>
@@ -12428,7 +12426,7 @@
         <v>12</v>
       </c>
       <c r="E321" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F321" s="7" t="s">
         <v>23</v>
@@ -12533,7 +12531,7 @@
         <v>12</v>
       </c>
       <c r="E324" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F324" s="7" t="s">
         <v>23</v>
@@ -12603,7 +12601,7 @@
         <v>12</v>
       </c>
       <c r="E326" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F326" s="7" t="s">
         <v>24</v>
@@ -13023,7 +13021,7 @@
         <v>12</v>
       </c>
       <c r="E338" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F338" s="7" t="s">
         <v>23</v>
@@ -13058,7 +13056,7 @@
         <v>12</v>
       </c>
       <c r="E339" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F339" s="7" t="s">
         <v>29</v>
@@ -13128,7 +13126,7 @@
         <v>12</v>
       </c>
       <c r="E341" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F341" s="7" t="s">
         <v>23</v>
@@ -13198,7 +13196,7 @@
         <v>12</v>
       </c>
       <c r="E343" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F343" s="7" t="s">
         <v>22</v>
@@ -13233,7 +13231,7 @@
         <v>12</v>
       </c>
       <c r="E344" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F344" s="7" t="s">
         <v>23</v>
@@ -13408,7 +13406,7 @@
         <v>12</v>
       </c>
       <c r="E349" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F349" s="7" t="s">
         <v>23</v>
@@ -13478,7 +13476,7 @@
         <v>12</v>
       </c>
       <c r="E351" s="7" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F351" s="7" t="s">
         <v>24</v>
@@ -13548,7 +13546,7 @@
         <v>12</v>
       </c>
       <c r="E353" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F353" s="7" t="s">
         <v>32</v>
@@ -13653,7 +13651,7 @@
         <v>12</v>
       </c>
       <c r="E356" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F356" s="7" t="s">
         <v>30</v>
@@ -13723,7 +13721,7 @@
         <v>10</v>
       </c>
       <c r="E358" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F358" s="7" t="s">
         <v>30</v>
@@ -14283,7 +14281,7 @@
         <v>12</v>
       </c>
       <c r="E374" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F374" s="7" t="s">
         <v>24</v>
@@ -14388,7 +14386,7 @@
         <v>12</v>
       </c>
       <c r="E377" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F377" s="7" t="s">
         <v>23</v>
@@ -14458,7 +14456,7 @@
         <v>12</v>
       </c>
       <c r="E379" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F379" s="7" t="s">
         <v>23</v>
@@ -14493,7 +14491,7 @@
         <v>12</v>
       </c>
       <c r="E380" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F380" s="7" t="s">
         <v>23</v>
@@ -14598,7 +14596,7 @@
         <v>12</v>
       </c>
       <c r="E383" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F383" s="7" t="s">
         <v>23</v>
@@ -14633,7 +14631,7 @@
         <v>12</v>
       </c>
       <c r="E384" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F384" s="7" t="s">
         <v>23</v>
@@ -14703,7 +14701,7 @@
         <v>12</v>
       </c>
       <c r="E386" s="7" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="F386" s="7" t="s">
         <v>24</v>
@@ -14773,7 +14771,7 @@
         <v>10</v>
       </c>
       <c r="E388" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F388" s="7" t="s">
         <v>30</v>
@@ -14808,7 +14806,7 @@
         <v>12</v>
       </c>
       <c r="E389" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F389" s="7" t="s">
         <v>32</v>
@@ -14843,7 +14841,7 @@
         <v>12</v>
       </c>
       <c r="E390" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F390" s="7" t="s">
         <v>30</v>
@@ -14878,7 +14876,7 @@
         <v>12</v>
       </c>
       <c r="E391" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F391" s="7" t="s">
         <v>30</v>
@@ -15718,7 +15716,7 @@
         <v>12</v>
       </c>
       <c r="E415" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F415" s="7" t="s">
         <v>23</v>
@@ -15858,7 +15856,7 @@
         <v>12</v>
       </c>
       <c r="E419" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F419" s="7" t="s">
         <v>24</v>
@@ -15998,7 +15996,7 @@
         <v>12</v>
       </c>
       <c r="E423" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F423" s="7" t="s">
         <v>23</v>
@@ -16033,7 +16031,7 @@
         <v>12</v>
       </c>
       <c r="E424" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F424" s="7" t="s">
         <v>29</v>
@@ -16103,7 +16101,7 @@
         <v>12</v>
       </c>
       <c r="E426" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F426" s="7" t="s">
         <v>23</v>
@@ -16208,7 +16206,7 @@
         <v>12</v>
       </c>
       <c r="E429" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F429" s="7" t="s">
         <v>22</v>
@@ -16348,7 +16346,7 @@
         <v>12</v>
       </c>
       <c r="E433" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F433" s="7" t="s">
         <v>23</v>
@@ -16383,7 +16381,7 @@
         <v>12</v>
       </c>
       <c r="E434" s="7" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F434" s="7" t="s">
         <v>24</v>
@@ -16453,7 +16451,7 @@
         <v>12</v>
       </c>
       <c r="E436" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F436" s="7" t="s">
         <v>30</v>
@@ -16593,7 +16591,7 @@
         <v>17</v>
       </c>
       <c r="E440" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F440" s="7" t="s">
         <v>24</v>
@@ -17118,7 +17116,7 @@
         <v>12</v>
       </c>
       <c r="E455" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F455" s="7" t="s">
         <v>23</v>
@@ -17223,7 +17221,7 @@
         <v>12</v>
       </c>
       <c r="E458" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F458" s="7" t="s">
         <v>24</v>
@@ -17258,7 +17256,7 @@
         <v>12</v>
       </c>
       <c r="E459" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F459" s="7" t="s">
         <v>23</v>
@@ -17328,7 +17326,7 @@
         <v>12</v>
       </c>
       <c r="E461" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F461" s="7" t="s">
         <v>23</v>
@@ -17468,7 +17466,7 @@
         <v>12</v>
       </c>
       <c r="E465" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F465" s="7" t="s">
         <v>23</v>
@@ -17503,7 +17501,7 @@
         <v>12</v>
       </c>
       <c r="E466" s="7" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F466" s="7" t="s">
         <v>24</v>
@@ -17538,7 +17536,7 @@
         <v>12</v>
       </c>
       <c r="E467" s="7" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="F467" s="7" t="s">
         <v>24</v>
@@ -17713,7 +17711,7 @@
         <v>10</v>
       </c>
       <c r="E472" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F472" s="7" t="s">
         <v>23</v>
@@ -17748,7 +17746,7 @@
         <v>10</v>
       </c>
       <c r="E473" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F473" s="7" t="s">
         <v>23</v>
@@ -17783,7 +17781,7 @@
         <v>10</v>
       </c>
       <c r="E474" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F474" s="7" t="s">
         <v>23</v>
@@ -18378,7 +18376,7 @@
         <v>12</v>
       </c>
       <c r="E491" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F491" s="7" t="s">
         <v>29</v>
@@ -18518,7 +18516,7 @@
         <v>12</v>
       </c>
       <c r="E495" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F495" s="7" t="s">
         <v>23</v>
@@ -18693,7 +18691,7 @@
         <v>12</v>
       </c>
       <c r="E500" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F500" s="7" t="s">
         <v>23</v>
@@ -18833,7 +18831,7 @@
         <v>12</v>
       </c>
       <c r="E504" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F504" s="7" t="s">
         <v>23</v>
@@ -18868,7 +18866,7 @@
         <v>12</v>
       </c>
       <c r="E505" s="7" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="F505" s="7" t="s">
         <v>24</v>
@@ -18903,7 +18901,7 @@
         <v>12</v>
       </c>
       <c r="E506" s="7" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="F506" s="7" t="s">
         <v>24</v>
